--- a/biology/Zoologie/Allosmaitia/Allosmaitia.xlsx
+++ b/biology/Zoologie/Allosmaitia/Allosmaitia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Allosmaitia est un genre de lépidoptères (papillons) de la famille des Lycaenidae et de la sous-famille des Theclinae présent en Amérique centrale et Amérique du Sud.
 </t>
@@ -511,7 +523,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre a été décrit par Harry Clench (d) en 1964.
 </t>
@@ -542,14 +556,16 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (22 novembre 2020)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (22 novembre 2020) :
 Allosmaitia coelebs (Herrich-Schäffer, 1862) présent à Cuba et à Haïti
 Allosmaitia fidena (Hewitson, 1867) présent en Guyane
 Allosmaitia myrtusa (Hewitson, 1867) présent en Colombie, en Bolivie, au Surinam, en Guyane et au Brésil.
 Allosmaitia piplea (Godman &amp; Salvin, 1896) présent à La Dominique et à Saint-Vincent.
-Allosmaitia strophius (Godart, [1824]) présent au Mexique, au Guatemala, à Panama, en Guyane et au Brésil[3].</t>
+Allosmaitia strophius (Godart, ) présent au Mexique, au Guatemala, à Panama, en Guyane et au Brésil.</t>
         </is>
       </c>
     </row>
@@ -577,9 +593,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces du genre Allosmaitia sont présentes en Amérique centrale et Amérique du Sud[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces du genre Allosmaitia sont présentes en Amérique centrale et Amérique du Sud.
 </t>
         </is>
       </c>
